--- a/catalogusdata/Concepten/Testdata concepten O.xlsx
+++ b/catalogusdata/Concepten/Testdata concepten O.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\lwortel\Documents\Klussen\Kadaster\Deliveries\Dataimport\Concepten\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\lwortel\Documents\Klussen\Kadaster\Deliveries\bp4mc2\catalogusdata\Concepten\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,12 +19,12 @@
     <sheet name="Waardelijsten" sheetId="6" r:id="rId5"/>
     <sheet name="Bronnen" sheetId="5" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="157">
   <si>
     <t>tabblad</t>
   </si>
@@ -902,7 +902,7 @@
   <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1278,10 +1278,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F54"/>
+  <dimension ref="A1:F57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1578,7 +1578,7 @@
         <v>24</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -1586,16 +1586,16 @@
         <v>78</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>28</v>
+        <v>79</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1603,68 +1603,68 @@
         <v>78</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="F18" s="6"/>
+        <v>30</v>
+      </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>78</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C19" s="9" t="s">
         <v>19</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>69</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="F19" s="6"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>78</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
-        <v>145</v>
+        <v>78</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>146</v>
+        <v>83</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>24</v>
+        <v>66</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1672,16 +1672,16 @@
         <v>145</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>28</v>
+        <v>146</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1689,16 +1689,16 @@
         <v>145</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>67</v>
+        <v>146</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>69</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1706,50 +1706,50 @@
         <v>145</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>79</v>
+        <v>28</v>
       </c>
       <c r="C24" s="9" t="s">
         <v>11</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>81</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
-        <v>115</v>
+        <v>145</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>25</v>
+        <v>69</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
-        <v>115</v>
+        <v>145</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>105</v>
+        <v>79</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>101</v>
+        <v>11</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>102</v>
+        <v>66</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -1757,16 +1757,16 @@
         <v>115</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -1774,45 +1774,96 @@
         <v>115</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C28" s="9" t="s">
         <v>11</v>
       </c>
       <c r="D28" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="E28" s="9" t="s">
+      <c r="E31" s="9" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="9"/>
-      <c r="B39" s="9"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
-    </row>
-    <row r="49" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49"/>
-      <c r="B49"/>
-      <c r="C49"/>
-      <c r="D49"/>
-      <c r="E49"/>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="9"/>
-      <c r="B53" s="9"/>
-      <c r="C53" s="9"/>
-      <c r="D53" s="9"/>
-      <c r="E53" s="9"/>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="12"/>
-      <c r="B54" s="12"/>
-      <c r="C54" s="12"/>
-      <c r="D54" s="12"/>
-      <c r="E54" s="12"/>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="9"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+    </row>
+    <row r="52" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52"/>
+      <c r="B52"/>
+      <c r="C52"/>
+      <c r="D52"/>
+      <c r="E52"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="9"/>
+      <c r="B56" s="9"/>
+      <c r="C56" s="9"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="9"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="12"/>
+      <c r="B57" s="12"/>
+      <c r="C57" s="12"/>
+      <c r="D57" s="12"/>
+      <c r="E57" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2392,9 +2443,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
